--- a/src/test/java/apachePOI/ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>edge</t>
+  </si>
+  <si>
+    <t>Convert amount to dollars</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,6 +96,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/apachePOI/ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="7">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>Convert amount to dollars</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Add a New Payee with Different Data Sets</t>
+  </si>
+  <si>
+    <t>Purchase foreign currency and convert to U.S. dollars</t>
   </si>
 </sst>
 </file>
@@ -68,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -140,6 +149,138 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/apachePOI/ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="8">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Purchase foreign currency and convert to U.S. dollars</t>
+  </si>
+  <si>
+    <t>Login using credentials from Excel with Apache POI</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -281,6 +284,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/apachePOI/ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>Login using credentials from Excel with Apache POI</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>edge</t>
+  </si>
+  <si>
+    <t>Login with valid username and password</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,6 +85,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/apachePOI/ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
   <si>
     <t>Login using credentials from Excel with Apache POI</t>
   </si>
@@ -68,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -107,6 +107,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/apachePOI/ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="7">
   <si>
     <t>Login using credentials from Excel with Apache POI</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>Login with valid username and password</t>
+  </si>
+  <si>
+    <t>Purchase foreign currency and convert to U.S. dollars</t>
+  </si>
+  <si>
+    <t>Add a New Payee with Different Data Sets</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -68,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,6 +138,237 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/apachePOI/ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="7">
   <si>
     <t>Login using credentials from Excel with Apache POI</t>
   </si>
@@ -77,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -369,6 +369,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
